--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/decision_table.xlsx
@@ -750,7 +750,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -8179,12 +8179,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -11088,12 +11088,12 @@
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR46" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11160,12 +11160,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="AT51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -12732,7 +12732,7 @@
       </c>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="AL63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM63" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15366,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -16571,7 +16571,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="AP70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ70" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16758,7 +16758,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -16960,7 +16960,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -17125,7 +17125,7 @@
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR72" t="inlineStr">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17646,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17908,7 +17908,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="AT76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -18280,12 +18280,12 @@
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -18387,7 +18387,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ78" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18966,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="AT80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19038,7 +19038,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -19073,7 +19073,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR81" t="inlineStr">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -19445,7 +19445,7 @@
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR82" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="AT83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="AI85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20228,7 +20228,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -20273,7 +20273,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -20687,7 +20687,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -20832,12 +20832,12 @@
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR88" t="inlineStr">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20894,7 +20894,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21191,7 +21191,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -21261,7 +21261,7 @@
       </c>
       <c r="AI90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ90" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -21655,7 +21655,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -21725,7 +21725,7 @@
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21812,7 +21812,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="AE93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF93" t="inlineStr">
@@ -21982,7 +21982,7 @@
       </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -21992,12 +21992,12 @@
       </c>
       <c r="AP93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR93" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="AM99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN99" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -23486,7 +23486,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="AT100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23753,7 +23753,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AT101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/decision_table.xlsx
@@ -675,7 +675,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -895,12 +895,12 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1596,14 +1596,14 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1828,14 +1828,14 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2389,17 +2389,17 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2546,17 +2546,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6565,12 +6565,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6700,14 +6700,14 @@
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -8875,12 +8875,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9970,7 +9970,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -10090,7 +10090,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -11472,7 +11472,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -12031,12 +12031,12 @@
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -12395,12 +12395,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -14907,12 +14907,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ64" t="inlineStr">
@@ -15284,14 +15284,14 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -15356,7 +15356,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -16531,12 +16531,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -16571,12 +16571,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16703,7 +16703,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -16748,7 +16748,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE72" t="inlineStr">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -17352,12 +17352,12 @@
       </c>
       <c r="AP73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR73" t="inlineStr">
@@ -17367,12 +17367,12 @@
       </c>
       <c r="AS73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17611,7 +17611,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -17626,7 +17626,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE76" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR76" t="inlineStr">
@@ -18063,19 +18063,19 @@
       </c>
       <c r="AS76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="AD77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE77" t="inlineStr">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR77" t="inlineStr">
@@ -18300,14 +18300,14 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -18372,7 +18372,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -18442,7 +18442,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -18559,7 +18559,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -18634,7 +18634,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -18684,7 +18684,7 @@
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE79" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH79" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ79" t="inlineStr">
@@ -18759,12 +18759,12 @@
       </c>
       <c r="AS79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19250,17 +19250,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -19340,7 +19340,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19779,12 +19779,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH84" t="inlineStr">
@@ -19894,7 +19894,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH85" t="inlineStr">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20188,7 +20188,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -20258,17 +20258,17 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH86" t="inlineStr">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -20620,14 +20620,14 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -20899,7 +20899,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -20949,22 +20949,22 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -21388,7 +21388,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -21413,12 +21413,12 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -21468,7 +21468,7 @@
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE91" t="inlineStr">
@@ -21528,7 +21528,7 @@
       </c>
       <c r="AP91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ91" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -21645,12 +21645,12 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -21660,7 +21660,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -21780,14 +21780,14 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -21807,7 +21807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="AG93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH93" t="inlineStr">
@@ -22007,12 +22007,12 @@
       </c>
       <c r="AS93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22276,7 +22276,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="AE95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF95" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="AG95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH95" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -22795,7 +22795,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="AG97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH97" t="inlineStr">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23067,7 +23067,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
@@ -23082,7 +23082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23219,7 +23219,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -23259,7 +23259,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -23269,7 +23269,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="AG99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH99" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
